--- a/Programs/Sources/Libraries/mcon/Matrixd/Result.xlsx
+++ b/Programs/Sources/Libraries/mcon/Matrixd/Result.xlsx
@@ -721,7 +721,7 @@
             <c:strRef>
               <c:f>record!$B$3:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -736,6 +736,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4K</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -747,19 +750,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.63260700000000003</c:v>
+                  <c:v>0.63240099999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0040900000000001</c:v>
+                  <c:v>2.9077299999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.05718</c:v>
+                  <c:v>1.0419499999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.87140300000000004</c:v>
+                  <c:v>0.96744600000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.75291600000000003</c:v>
+                  <c:v>0.57527200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86472000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -784,7 +790,7 @@
             <c:strRef>
               <c:f>record!$B$3:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -799,6 +805,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4K</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -810,19 +819,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.44798199999999999</c:v>
+                  <c:v>0.44242999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5030399999999999</c:v>
+                  <c:v>1.5217099999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.35886</c:v>
+                  <c:v>2.4979100000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1490499999999999</c:v>
+                  <c:v>4.3111699999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.343400000000001</c:v>
+                  <c:v>11.2668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.036999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -847,7 +859,7 @@
             <c:strRef>
               <c:f>record!$B$3:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -862,6 +874,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4K</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -873,19 +888,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.5625</c:v>
+                  <c:v>0.28571400000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5625</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85</c:v>
+                  <c:v>0.86666699999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.234375</c:v>
+                  <c:v>7.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.49612400000000001</c:v>
+                  <c:v>0.85294099999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.485981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -910,7 +928,7 @@
             <c:strRef>
               <c:f>record!$B$3:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -925,6 +943,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4K</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -936,19 +957,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.1666700000000001</c:v>
+                  <c:v>0.66666700000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0833299999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.93333299999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.78182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -970,7 +994,7 @@
             <c:strRef>
               <c:f>record!$B$3:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -985,6 +1009,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4K</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1015,7 +1042,7 @@
             <c:strRef>
               <c:f>record!$B$3:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -1030,6 +1057,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4K</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1060,7 +1090,7 @@
             <c:strRef>
               <c:f>record!$B$3:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -1075,6 +1105,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4K</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1098,11 +1131,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="92899840"/>
+        <c:axId val="98605568"/>
         <c:axId val="85103104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92899840"/>
+        <c:axId val="98605568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1131,7 +1164,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92899840"/>
+        <c:crossAx val="98605568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1477,10 +1510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F7"/>
+  <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B2:F7"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1508,16 +1541,16 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>0.63260700000000003</v>
+        <v>0.63240099999999999</v>
       </c>
       <c r="D3">
-        <v>0.44798199999999999</v>
+        <v>0.44242999999999999</v>
       </c>
       <c r="E3">
-        <v>0.5625</v>
+        <v>0.28571400000000002</v>
       </c>
       <c r="F3">
-        <v>1.1666700000000001</v>
+        <v>0.66666700000000001</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
@@ -1526,16 +1559,16 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>3.0040900000000001</v>
+        <v>2.9077299999999999</v>
       </c>
       <c r="D4">
-        <v>1.5030399999999999</v>
+        <v>1.5217099999999999</v>
       </c>
       <c r="E4">
-        <v>0.5625</v>
+        <v>0.75</v>
       </c>
       <c r="F4">
-        <v>1.0833299999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
@@ -1544,16 +1577,16 @@
         <v>64</v>
       </c>
       <c r="C5">
-        <v>1.05718</v>
+        <v>1.0419499999999999</v>
       </c>
       <c r="D5">
-        <v>2.35886</v>
+        <v>2.4979100000000001</v>
       </c>
       <c r="E5">
-        <v>0.85</v>
+        <v>0.86666699999999997</v>
       </c>
       <c r="F5">
-        <v>1.125</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
@@ -1562,16 +1595,16 @@
         <v>256</v>
       </c>
       <c r="C6">
-        <v>0.87140300000000004</v>
+        <v>0.96744600000000003</v>
       </c>
       <c r="D6">
-        <v>4.1490499999999999</v>
+        <v>4.3111699999999997</v>
       </c>
       <c r="E6">
-        <v>0.234375</v>
+        <v>7.8</v>
       </c>
       <c r="F6">
-        <v>0.93333299999999997</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
@@ -1580,16 +1613,34 @@
         <v>1K</v>
       </c>
       <c r="C7">
-        <v>0.75291600000000003</v>
+        <v>0.57527200000000001</v>
       </c>
       <c r="D7">
-        <v>11.343400000000001</v>
+        <v>11.2668</v>
       </c>
       <c r="E7">
-        <v>0.49612400000000001</v>
+        <v>0.85294099999999995</v>
       </c>
       <c r="F7">
         <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B8" t="str">
+        <f>"4K"</f>
+        <v>4K</v>
+      </c>
+      <c r="C8">
+        <v>0.86472000000000004</v>
+      </c>
+      <c r="D8">
+        <v>21.036999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.485981</v>
+      </c>
+      <c r="F8">
+        <v>1.78182</v>
       </c>
     </row>
   </sheetData>
